--- a/excel/template.xlsx
+++ b/excel/template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masanori.shimoji\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rsyslog\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
@@ -87,10 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -398,7 +401,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,10 +409,10 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="102.5703125" customWidth="1"/>
+    <col min="4" max="4" width="108.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +422,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -429,7 +432,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -437,17 +440,17 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2"/>
